--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\source\repos\FOG_Server\FOG_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330C5F4C-FD88-4D5B-9B26-C3F8C64E0AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D776EC-309D-4317-A611-4190780C6349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="4620" windowWidth="31290" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
     <sheet name="Events" sheetId="2" r:id="rId2"/>
     <sheet name="Alerts" sheetId="3" r:id="rId3"/>
+    <sheet name="Uptime" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="124">
   <si>
     <t>Id</t>
   </si>
@@ -56,9 +68,6 @@
     <t>09e12d04-c2a1-4f89-a075-cedb2ef631e6</t>
   </si>
   <si>
-    <t>ca0e280d-7405-4eaa-b16a-9a34a97a869f</t>
-  </si>
-  <si>
     <t>192.168.1.129</t>
   </si>
   <si>
@@ -246,6 +255,162 @@
   </si>
   <si>
     <t>AlertMessage</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>Disconnects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Light Switch-44</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>7302b87e-86aa-47c1-90c7-89c56df6b643</t>
+  </si>
+  <si>
+    <t>990a8d24-a75e-421e-8999-1aade5d351a1</t>
+  </si>
+  <si>
+    <t>6fd5903c-c170-4ee5-86b4-376c1fb899f8</t>
+  </si>
+  <si>
+    <t>87cef437-1baa-4529-af5b-6adab4d686ec</t>
+  </si>
+  <si>
+    <t>83b3373d-14ea-4cfb-8d37-e2845a2da879</t>
+  </si>
+  <si>
+    <t>2237f356-318b-43dc-a65e-09c5bab17774</t>
+  </si>
+  <si>
+    <t>aaa3655b-3eef-4b3f-96d7-68bb7acacd32</t>
+  </si>
+  <si>
+    <t>d63831bc-a7b6-482f-ac2a-2dc336d9b9dc</t>
+  </si>
+  <si>
+    <t>8a4fde2f-f9c1-445d-b849-8c4e2a59ffcf</t>
+  </si>
+  <si>
+    <t>63efc865-17b6-4bb4-ab8d-58f52eb0fdb9</t>
+  </si>
+  <si>
+    <t>8db4b144-f249-407f-85e5-26c231dd4633</t>
+  </si>
+  <si>
+    <t>80c9c1fc-ce37-44d5-a54a-d08f93e85b0f</t>
+  </si>
+  <si>
+    <t>66f4db00-2e55-474b-8414-80c243e786f5</t>
+  </si>
+  <si>
+    <t>95194967-3fca-4ff3-a8f3-d5ee38de5294</t>
+  </si>
+  <si>
+    <t>f21d600a-2c35-4663-9d9e-2f76b5df2932</t>
+  </si>
+  <si>
+    <t>2bf1407a-3a38-4bed-98ef-d8ecd73ca9c8</t>
+  </si>
+  <si>
+    <t>a6eba57b-05b4-45ae-8211-c57f5304534e</t>
+  </si>
+  <si>
+    <t>de972e25-9a23-4550-8902-28e707e4a3a7</t>
+  </si>
+  <si>
+    <t>440df296-becd-4dd4-888c-85cc54a1a583</t>
+  </si>
+  <si>
+    <t>80ec054b-75e9-44e4-a444-fdc039e1593b</t>
+  </si>
+  <si>
+    <t>5e68ccb9-76fd-47c1-874d-2df08c37eb37</t>
+  </si>
+  <si>
+    <t>175ff7ed-4013-481b-b3cc-40fd0287bbd5</t>
+  </si>
+  <si>
+    <t>2d0261f8-9223-4c4a-ab1a-5b8b03488ffc</t>
+  </si>
+  <si>
+    <t>2dc6673d-e4cd-4cec-ba07-18531391a33f</t>
+  </si>
+  <si>
+    <t>dc97db3d-9f66-47cd-a20a-495e15a3f0d2</t>
+  </si>
+  <si>
+    <t>2adf389b-ae29-423c-95a0-7c7b0f81434a</t>
+  </si>
+  <si>
+    <t>55a21268-7984-4da1-a740-8f78ccb51500</t>
+  </si>
+  <si>
+    <t>ecbdf134-5023-4dbb-80fd-dfdb2b73e3de</t>
+  </si>
+  <si>
+    <t>049e90e4-43af-4368-8124-d408ba076f96</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
 </sst>
 </file>
@@ -331,9 +496,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3371CB5-1D03-47B7-8581-728F1EC67862}" name="Table13" displayName="Table13" ref="A1:I31" totalsRowShown="0">
-  <autoFilter ref="A1:I31" xr:uid="{D3371CB5-1D03-47B7-8581-728F1EC67862}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3371CB5-1D03-47B7-8581-728F1EC67862}" name="Table13" displayName="Table13" ref="A1:L31" totalsRowShown="0">
+  <autoFilter ref="A1:L31" xr:uid="{D3371CB5-1D03-47B7-8581-728F1EC67862}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{BFDCF6D6-3A22-467C-834C-93E0D16A94FB}" name="DeviceID"/>
     <tableColumn id="9" xr3:uid="{B6DF7550-F9DA-4F74-B025-07BEE7D95404}" name="TimeStamp"/>
     <tableColumn id="2" xr3:uid="{7B8795BB-AC2A-4ECF-970B-E8ACAB08560D}" name="IP"/>
@@ -343,6 +508,24 @@
     <tableColumn id="6" xr3:uid="{0819570B-DDBE-429D-91E0-25D21BFDB647}" name="Status"/>
     <tableColumn id="7" xr3:uid="{37392463-6F24-4A02-8222-DA6A4F4F0FE5}" name="AnalyticModule"/>
     <tableColumn id="8" xr3:uid="{9DE527A0-BF09-4926-90B6-D17CF539F577}" name="AlertMessage"/>
+    <tableColumn id="10" xr3:uid="{88ECB363-1AAD-4D58-BBD0-BDA432AA2BF2}" name="Priority"/>
+    <tableColumn id="11" xr3:uid="{47E451DE-9A26-4326-B29C-6EE6BCFA5F39}" name="Current"/>
+    <tableColumn id="12" xr3:uid="{1F8EF98E-325B-4E02-9B4F-6981966CC4EA}" name="Expected"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}" name="Table14" displayName="Table14" ref="B1:G31" totalsRowShown="0">
+  <autoFilter ref="B1:G31" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{59ECF417-BFD4-4931-9013-84530CD15DD3}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{97B4C2FE-1A59-4DE5-A4E4-65985B3134BB}" name="IP"/>
+    <tableColumn id="3" xr3:uid="{BCB1652A-D20F-4CD5-8015-E57825DCB427}" name="Name"/>
+    <tableColumn id="6" xr3:uid="{42EB92E1-76E9-4813-B85A-F657B02A85B9}" name="Offline"/>
+    <tableColumn id="7" xr3:uid="{CA36D59E-8F05-4DEC-865E-F7B8F66405DD}" name="Disconnects"/>
+    <tableColumn id="8" xr3:uid="{74039963-CD18-414E-AD4A-66167443FE19}" name="Online"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -614,7 +797,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,22 +840,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -680,25 +863,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -706,25 +889,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -732,25 +915,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -758,25 +941,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -784,25 +967,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -810,25 +993,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -836,25 +1019,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -862,25 +1045,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -888,25 +1071,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -914,25 +1097,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
         <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -940,25 +1123,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -966,25 +1149,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
         <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -992,25 +1175,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
         <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1018,25 +1201,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
         <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1044,25 +1227,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
         <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1070,19 +1253,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
         <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1090,19 +1279,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
         <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1110,19 +1305,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
         <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1130,19 +1331,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
         <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1150,19 +1357,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
         <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1170,19 +1383,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
         <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1190,19 +1409,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
         <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1210,19 +1435,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
         <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1230,19 +1461,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
         <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1250,19 +1487,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
         <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1270,19 +1513,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
         <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1290,19 +1539,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
         <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -1310,19 +1565,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
         <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1330,19 +1591,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
         <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1362,7 +1629,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,46 +1641,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1">
         <v>44945.720405092594</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1">
         <v>44946.720405092594</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1">
         <v>44947.720405092594</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1424,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,14 +1707,15 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1456,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1465,13 +1733,22 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1479,767 +1756,1818 @@
         <v>44945.720405092594</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1">
         <v>44946.720405092594</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3">
+        <v>3.22</v>
+      </c>
+      <c r="L3">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1">
         <v>44947.720405092594</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1">
         <v>44948.720405092594</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1">
         <v>44949.720405092594</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <v>3.22</v>
+      </c>
+      <c r="L6">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1">
         <v>44950.720405092594</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1">
         <v>44951.720405092594</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1">
         <v>44952.720405092594</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9">
+        <v>3.22</v>
+      </c>
+      <c r="L9">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1">
         <v>44953.720405092594</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1">
         <v>44954.720405092594</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1">
         <v>44955.720405092594</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12">
+        <v>3.21</v>
+      </c>
+      <c r="L12">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1">
         <v>44956.720405092594</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1">
         <v>44957.720405092594</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1">
         <v>44958.720405092594</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15">
+        <v>3.22</v>
+      </c>
+      <c r="L15">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1">
         <v>44959.720405092594</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1">
         <v>44960.720405092594</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
         <v>68</v>
       </c>
-      <c r="I17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1">
         <v>44961.720405092594</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18">
+        <v>3.32</v>
+      </c>
+      <c r="L18">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1">
         <v>44962.720405092594</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1">
         <v>44963.720405092594</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
         <v>68</v>
       </c>
-      <c r="I20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1">
         <v>44964.720405092594</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21">
+        <v>3.23</v>
+      </c>
+      <c r="L21">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1">
         <v>44965.720405092594</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1">
         <v>44966.720405092594</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
         <v>68</v>
       </c>
-      <c r="I23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B24" s="1">
         <v>44967.720405092594</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24">
+        <v>3.22</v>
+      </c>
+      <c r="L24">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1">
         <v>44968.720405092594</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1">
         <v>44969.720405092594</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
       </c>
       <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
         <v>68</v>
       </c>
-      <c r="I26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1">
         <v>44970.720405092594</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
       </c>
       <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27">
+        <v>3.22</v>
+      </c>
+      <c r="L27">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1">
         <v>44971.720405092594</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>121</v>
+      </c>
+      <c r="L28">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1">
         <v>44972.720405092594</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
       </c>
       <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
         <v>15</v>
       </c>
       <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
         <v>68</v>
       </c>
-      <c r="I29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1">
         <v>44973.720405092594</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
       </c>
       <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30">
+        <v>3.23</v>
+      </c>
+      <c r="L30">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1">
         <v>44974.720405092594</v>
       </c>
       <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31">
+        <v>3.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" t="s">
-        <v>64</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D776EC-309D-4317-A611-4190780C6349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC38B98-623A-497F-93F2-5005AC014B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Failed login</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
     <t>Anomaly</t>
   </si>
   <si>
@@ -411,6 +408,42 @@
   </si>
   <si>
     <t>Expected</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Bedroom 1</t>
+  </si>
+  <si>
+    <t>Bedroom 2</t>
+  </si>
+  <si>
+    <t>Bedroom 3</t>
+  </si>
+  <si>
+    <t>Bedroom 4</t>
+  </si>
+  <si>
+    <t>Entertainment Room</t>
+  </si>
+  <si>
+    <t>Study Room</t>
+  </si>
+  <si>
+    <t>Balcony 1</t>
+  </si>
+  <si>
+    <t>Balcony 2</t>
+  </si>
+  <si>
+    <t>Outdoor Patio</t>
   </si>
 </sst>
 </file>
@@ -503,8 +536,8 @@
     <tableColumn id="9" xr3:uid="{B6DF7550-F9DA-4F74-B025-07BEE7D95404}" name="TimeStamp"/>
     <tableColumn id="2" xr3:uid="{7B8795BB-AC2A-4ECF-970B-E8ACAB08560D}" name="IP"/>
     <tableColumn id="3" xr3:uid="{22369AA6-D605-475A-9259-D475BAEB8480}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{932515D1-FCCA-476E-88FC-A634DF0DF0A8}" name="Site"/>
-    <tableColumn id="5" xr3:uid="{FB0266BE-704D-4A79-B0D4-D13C64206F9B}" name="Location"/>
+    <tableColumn id="4" xr3:uid="{932515D1-FCCA-476E-88FC-A634DF0DF0A8}" name="Location"/>
+    <tableColumn id="5" xr3:uid="{FB0266BE-704D-4A79-B0D4-D13C64206F9B}" name="Room"/>
     <tableColumn id="6" xr3:uid="{0819570B-DDBE-429D-91E0-25D21BFDB647}" name="Status"/>
     <tableColumn id="7" xr3:uid="{37392463-6F24-4A02-8222-DA6A4F4F0FE5}" name="AnalyticModule"/>
     <tableColumn id="8" xr3:uid="{9DE527A0-BF09-4926-90B6-D17CF539F577}" name="AlertMessage"/>
@@ -797,7 +830,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,6 +839,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -863,7 +897,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -875,7 +909,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -889,7 +923,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -901,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -915,7 +949,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -927,10 +961,10 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -941,7 +975,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -953,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -967,7 +1001,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -979,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -993,7 +1027,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1005,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1019,7 +1053,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1031,10 +1065,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -1045,7 +1079,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1057,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1071,7 +1105,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1083,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1097,7 +1131,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1109,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1123,7 +1157,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1135,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1149,7 +1183,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -1161,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -1175,7 +1209,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -1187,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1201,7 +1235,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -1213,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -1227,7 +1261,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -1239,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1253,22 +1287,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -1279,19 +1313,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1305,19 +1339,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1331,19 +1365,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1357,19 +1391,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -1383,19 +1417,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -1409,19 +1443,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -1435,19 +1469,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -1461,19 +1495,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -1487,13 +1521,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1513,13 +1547,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -1539,13 +1573,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1565,13 +1599,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1591,13 +1625,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1629,7 +1663,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,7 +1686,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1">
         <v>44945.720405092594</v>
@@ -1663,7 +1697,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1">
         <v>44946.720405092594</v>
@@ -1674,7 +1708,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
         <v>44947.720405092594</v>
@@ -1693,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,28 +1758,28 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
-        <v>71</v>
-      </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
         <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1771,13 +1805,13 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L2">
         <v>3.24</v>
@@ -1785,7 +1819,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1">
         <v>44946.720405092594</v>
@@ -1800,19 +1834,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3">
         <v>3.22</v>
@@ -1823,7 +1857,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1">
         <v>44947.720405092594</v>
@@ -1838,19 +1872,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
         <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4">
         <v>3.24</v>
@@ -1858,7 +1892,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1">
         <v>44948.720405092594</v>
@@ -1873,19 +1907,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5">
         <v>3.24</v>
@@ -1893,7 +1927,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1">
         <v>44949.720405092594</v>
@@ -1908,19 +1942,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6">
         <v>3.22</v>
@@ -1931,7 +1965,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1">
         <v>44950.720405092594</v>
@@ -1946,19 +1980,19 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
         <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7">
         <v>3.24</v>
@@ -1966,7 +2000,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1">
         <v>44951.720405092594</v>
@@ -1981,19 +2015,19 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
         <v>67</v>
       </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L8">
         <v>3.24</v>
@@ -2001,7 +2035,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1">
         <v>44952.720405092594</v>
@@ -2016,19 +2050,19 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9">
         <v>3.22</v>
@@ -2039,7 +2073,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1">
         <v>44953.720405092594</v>
@@ -2054,19 +2088,19 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
         <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10">
         <v>3.24</v>
@@ -2074,7 +2108,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1">
         <v>44954.720405092594</v>
@@ -2089,19 +2123,19 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L11">
         <v>3.24</v>
@@ -2109,7 +2143,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1">
         <v>44955.720405092594</v>
@@ -2124,19 +2158,19 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K12">
         <v>3.21</v>
@@ -2147,7 +2181,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1">
         <v>44956.720405092594</v>
@@ -2162,19 +2196,19 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13">
         <v>3.24</v>
@@ -2182,7 +2216,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1">
         <v>44957.720405092594</v>
@@ -2197,19 +2231,19 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L14">
         <v>3.24</v>
@@ -2217,7 +2251,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1">
         <v>44958.720405092594</v>
@@ -2232,19 +2266,19 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K15">
         <v>3.22</v>
@@ -2255,7 +2289,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1">
         <v>44959.720405092594</v>
@@ -2270,19 +2304,19 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
         <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L16">
         <v>3.24</v>
@@ -2290,7 +2324,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1">
         <v>44960.720405092594</v>
@@ -2305,19 +2339,19 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
       <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
         <v>67</v>
       </c>
-      <c r="I17" t="s">
-        <v>68</v>
-      </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17">
         <v>3.24</v>
@@ -2325,7 +2359,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1">
         <v>44961.720405092594</v>
@@ -2334,25 +2368,25 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18">
         <v>3.32</v>
@@ -2363,7 +2397,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1">
         <v>44962.720405092594</v>
@@ -2372,25 +2406,25 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
         <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L19">
         <v>3.24</v>
@@ -2398,7 +2432,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1">
         <v>44963.720405092594</v>
@@ -2407,25 +2441,25 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
       <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
         <v>67</v>
       </c>
-      <c r="I20" t="s">
-        <v>68</v>
-      </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L20">
         <v>3.24</v>
@@ -2433,7 +2467,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1">
         <v>44964.720405092594</v>
@@ -2442,25 +2476,25 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21">
         <v>3.23</v>
@@ -2471,7 +2505,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1">
         <v>44965.720405092594</v>
@@ -2480,25 +2514,25 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L22">
         <v>3.24</v>
@@ -2506,7 +2540,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1">
         <v>44966.720405092594</v>
@@ -2515,25 +2549,25 @@
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
       <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
         <v>67</v>
       </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L23">
         <v>3.24</v>
@@ -2541,7 +2575,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1">
         <v>44967.720405092594</v>
@@ -2550,25 +2584,25 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K24">
         <v>3.22</v>
@@ -2579,7 +2613,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1">
         <v>44968.720405092594</v>
@@ -2588,25 +2622,25 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L25">
         <v>3.24</v>
@@ -2614,7 +2648,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1">
         <v>44969.720405092594</v>
@@ -2623,25 +2657,25 @@
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
         <v>67</v>
       </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L26">
         <v>3.24</v>
@@ -2649,7 +2683,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1">
         <v>44970.720405092594</v>
@@ -2658,7 +2692,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -2670,13 +2704,13 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K27">
         <v>3.22</v>
@@ -2687,7 +2721,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1">
         <v>44971.720405092594</v>
@@ -2696,7 +2730,7 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2705,16 +2739,16 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
         <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L28">
         <v>3.24</v>
@@ -2722,7 +2756,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1">
         <v>44972.720405092594</v>
@@ -2731,7 +2765,7 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -2743,13 +2777,13 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
         <v>67</v>
       </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L29">
         <v>3.24</v>
@@ -2757,7 +2791,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1">
         <v>44973.720405092594</v>
@@ -2766,7 +2800,7 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -2778,13 +2812,13 @@
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K30">
         <v>3.23</v>
@@ -2795,7 +2829,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1">
         <v>44974.720405092594</v>
@@ -2804,7 +2838,7 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -2813,16 +2847,16 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
         <v>63</v>
       </c>
       <c r="J31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L31">
         <v>3.24</v>
@@ -2855,7 +2889,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2867,10 +2901,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -2904,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2927,7 +2961,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -2950,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2973,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2996,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -3019,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -3042,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -3065,7 +3099,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -3088,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -3111,7 +3145,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -3134,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -3157,7 +3191,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -3180,7 +3214,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -3203,7 +3237,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -3226,7 +3260,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -3249,13 +3283,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -3272,13 +3306,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -3295,13 +3329,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -3318,13 +3352,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -3341,13 +3375,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -3364,13 +3398,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -3387,13 +3421,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -3410,13 +3444,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -3433,13 +3467,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -3456,13 +3490,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -3479,13 +3513,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -3502,13 +3536,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -3525,13 +3559,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30">
         <v>9</v>
@@ -3548,13 +3582,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31">
         <v>10</v>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC38B98-623A-497F-93F2-5005AC014B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A21F86-E0F6-47BD-9C2E-CD0C975738E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,6 +840,7 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1727,14 +1728,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -1813,6 +1814,9 @@
       <c r="J2" t="s">
         <v>118</v>
       </c>
+      <c r="K2">
+        <v>3.24</v>
+      </c>
       <c r="L2">
         <v>3.24</v>
       </c>
@@ -1886,6 +1890,9 @@
       <c r="J4" t="s">
         <v>120</v>
       </c>
+      <c r="K4">
+        <v>3.24</v>
+      </c>
       <c r="L4">
         <v>3.24</v>
       </c>
@@ -1921,6 +1928,9 @@
       <c r="J5" t="s">
         <v>118</v>
       </c>
+      <c r="K5">
+        <v>3.24</v>
+      </c>
       <c r="L5">
         <v>3.24</v>
       </c>
@@ -1994,6 +2004,9 @@
       <c r="J7" t="s">
         <v>120</v>
       </c>
+      <c r="K7">
+        <v>3.24</v>
+      </c>
       <c r="L7">
         <v>3.24</v>
       </c>
@@ -2029,6 +2042,9 @@
       <c r="J8" t="s">
         <v>118</v>
       </c>
+      <c r="K8">
+        <v>3.24</v>
+      </c>
       <c r="L8">
         <v>3.24</v>
       </c>
@@ -2102,6 +2118,9 @@
       <c r="J10" t="s">
         <v>120</v>
       </c>
+      <c r="K10">
+        <v>3.24</v>
+      </c>
       <c r="L10">
         <v>3.24</v>
       </c>
@@ -2137,6 +2156,9 @@
       <c r="J11" t="s">
         <v>118</v>
       </c>
+      <c r="K11">
+        <v>3.24</v>
+      </c>
       <c r="L11">
         <v>3.24</v>
       </c>
@@ -2210,6 +2232,9 @@
       <c r="J13" t="s">
         <v>120</v>
       </c>
+      <c r="K13">
+        <v>3.24</v>
+      </c>
       <c r="L13">
         <v>3.24</v>
       </c>
@@ -2245,6 +2270,9 @@
       <c r="J14" t="s">
         <v>118</v>
       </c>
+      <c r="K14">
+        <v>3.24</v>
+      </c>
       <c r="L14">
         <v>3.24</v>
       </c>
@@ -2318,6 +2346,9 @@
       <c r="J16" t="s">
         <v>120</v>
       </c>
+      <c r="K16">
+        <v>3.24</v>
+      </c>
       <c r="L16">
         <v>3.24</v>
       </c>
@@ -2353,6 +2384,9 @@
       <c r="J17" t="s">
         <v>118</v>
       </c>
+      <c r="K17">
+        <v>3.24</v>
+      </c>
       <c r="L17">
         <v>3.24</v>
       </c>
@@ -2426,6 +2460,9 @@
       <c r="J19" t="s">
         <v>120</v>
       </c>
+      <c r="K19">
+        <v>3.24</v>
+      </c>
       <c r="L19">
         <v>3.24</v>
       </c>
@@ -2461,6 +2498,9 @@
       <c r="J20" t="s">
         <v>118</v>
       </c>
+      <c r="K20">
+        <v>3.24</v>
+      </c>
       <c r="L20">
         <v>3.24</v>
       </c>
@@ -2534,6 +2574,9 @@
       <c r="J22" t="s">
         <v>120</v>
       </c>
+      <c r="K22">
+        <v>3.24</v>
+      </c>
       <c r="L22">
         <v>3.24</v>
       </c>
@@ -2569,6 +2612,9 @@
       <c r="J23" t="s">
         <v>118</v>
       </c>
+      <c r="K23">
+        <v>3.24</v>
+      </c>
       <c r="L23">
         <v>3.24</v>
       </c>
@@ -2642,6 +2688,9 @@
       <c r="J25" t="s">
         <v>120</v>
       </c>
+      <c r="K25">
+        <v>3.24</v>
+      </c>
       <c r="L25">
         <v>3.24</v>
       </c>
@@ -2677,6 +2726,9 @@
       <c r="J26" t="s">
         <v>118</v>
       </c>
+      <c r="K26">
+        <v>3.24</v>
+      </c>
       <c r="L26">
         <v>3.24</v>
       </c>
@@ -2750,6 +2802,9 @@
       <c r="J28" t="s">
         <v>120</v>
       </c>
+      <c r="K28">
+        <v>3.24</v>
+      </c>
       <c r="L28">
         <v>3.24</v>
       </c>
@@ -2785,6 +2840,9 @@
       <c r="J29" t="s">
         <v>118</v>
       </c>
+      <c r="K29">
+        <v>3.24</v>
+      </c>
       <c r="L29">
         <v>3.24</v>
       </c>
@@ -2857,6 +2915,9 @@
       </c>
       <c r="J31" t="s">
         <v>120</v>
+      </c>
+      <c r="K31">
+        <v>3.24</v>
       </c>
       <c r="L31">
         <v>3.24</v>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A21F86-E0F6-47BD-9C2E-CD0C975738E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FE4BA-7428-486F-80FC-A0E240F71D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7875" tabRatio="595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
     <sheet name="Events" sheetId="2" r:id="rId2"/>
     <sheet name="Alerts" sheetId="3" r:id="rId3"/>
-    <sheet name="Uptime" sheetId="4" r:id="rId4"/>
+    <sheet name="Network" sheetId="5" r:id="rId4"/>
+    <sheet name="Uptime" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="156">
   <si>
     <t>Id</t>
   </si>
@@ -444,6 +445,69 @@
   </si>
   <si>
     <t>Outdoor Patio</t>
+  </si>
+  <si>
+    <t>DeviceType</t>
+  </si>
+  <si>
+    <t>TargetDeviceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetDeviceType </t>
+  </si>
+  <si>
+    <t>Target Device IP</t>
+  </si>
+  <si>
+    <t>ExpectedComm</t>
+  </si>
+  <si>
+    <t>ActualComm</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>fog-server-1</t>
+  </si>
+  <si>
+    <t>18.160.18.64</t>
+  </si>
+  <si>
+    <t>Fog Server</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>IoT Device</t>
+  </si>
+  <si>
+    <t>Fog Node</t>
+  </si>
+  <si>
+    <t>Higher than expected data transfer</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Unusual communication pattern</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>TargetDeviceName</t>
+  </si>
+  <si>
+    <t>Device Offline</t>
+  </si>
+  <si>
+    <t>FOG</t>
   </si>
 </sst>
 </file>
@@ -491,9 +555,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="A31:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,6 +2999,1559 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" s="3">
+        <v>3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" s="3">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
   <dimension ref="A1:G31"/>
   <sheetViews>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FE4BA-7428-486F-80FC-A0E240F71D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F064C-007F-4578-92AD-2D937307A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7875" tabRatio="595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="A31:B35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1910,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
         <v>68</v>
@@ -2024,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
         <v>68</v>
@@ -2100,7 +2100,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
         <v>67</v>
@@ -2176,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
         <v>63</v>
@@ -2214,7 +2214,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
         <v>67</v>
@@ -2290,7 +2290,7 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
@@ -2328,7 +2328,7 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
@@ -2404,7 +2404,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
         <v>63</v>
@@ -2442,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
         <v>67</v>
@@ -2518,7 +2518,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
         <v>63</v>
@@ -2556,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
         <v>67</v>
@@ -2632,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
@@ -2670,7 +2670,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
         <v>67</v>
@@ -2746,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -2784,7 +2784,7 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
         <v>67</v>
@@ -2860,7 +2860,7 @@
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" t="s">
         <v>63</v>
@@ -2898,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" t="s">
         <v>67</v>
@@ -2974,7 +2974,7 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s">
         <v>63</v>
@@ -3002,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F064C-007F-4578-92AD-2D937307A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A77421-F4C2-4C4F-A311-81F0D1BBD26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="156">
   <si>
     <t>Id</t>
   </si>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>16</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>16</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>16</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>16</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>16</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,20 +1645,11 @@
       <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
       <c r="F29" t="s">
         <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -1671,20 +1662,11 @@
       <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
       <c r="F30" t="s">
         <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1697,20 +1679,11 @@
       <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
       <c r="F31" t="s">
         <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1730,7 +1703,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,118 +2849,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="1">
-        <v>44972.720405092594</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29">
-        <v>3.24</v>
-      </c>
-      <c r="L29">
-        <v>3.24</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44973.720405092594</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30">
-        <v>3.23</v>
-      </c>
-      <c r="L30">
-        <v>3.24</v>
-      </c>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="1">
-        <v>44974.720405092594</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31">
-        <v>3.24</v>
-      </c>
-      <c r="L31">
-        <v>3.24</v>
-      </c>
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3002,7 +2870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E15" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -4555,8 +4423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A77421-F4C2-4C4F-A311-81F0D1BBD26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D452D9-14ED-4D42-9599-71BF6CF56772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="158">
   <si>
     <t>Id</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>FOG</t>
+  </si>
+  <si>
+    <t>DownPercent</t>
+  </si>
+  <si>
+    <t>UpPercent</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -616,15 +629,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}" name="Table14" displayName="Table14" ref="B1:G31" totalsRowShown="0">
-  <autoFilter ref="B1:G31" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}" name="Table14" displayName="Table14" ref="B1:I31" totalsRowShown="0">
+  <autoFilter ref="B1:I31" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{59ECF417-BFD4-4931-9013-84530CD15DD3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{97B4C2FE-1A59-4DE5-A4E4-65985B3134BB}" name="IP"/>
     <tableColumn id="3" xr3:uid="{BCB1652A-D20F-4CD5-8015-E57825DCB427}" name="Name"/>
     <tableColumn id="6" xr3:uid="{42EB92E1-76E9-4813-B85A-F657B02A85B9}" name="Offline"/>
     <tableColumn id="7" xr3:uid="{CA36D59E-8F05-4DEC-865E-F7B8F66405DD}" name="Disconnects"/>
     <tableColumn id="8" xr3:uid="{74039963-CD18-414E-AD4A-66167443FE19}" name="Online"/>
+    <tableColumn id="4" xr3:uid="{87DB40E0-AFA5-44C6-BE6A-30C9C798E5B9}" name="DownPercent" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1BBDE4C9-0906-4464-910F-09513D77BF80}" name="UpPercent" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -895,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4421,10 +4436,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,9 +4448,10 @@
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -4457,8 +4473,14 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4480,8 +4502,14 @@
       <c r="G2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4503,8 +4531,14 @@
       <c r="G3">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4526,8 +4560,14 @@
       <c r="G4">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4549,8 +4589,14 @@
       <c r="G5">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4572,8 +4618,14 @@
       <c r="G6">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4595,8 +4647,14 @@
       <c r="G7">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4618,8 +4676,14 @@
       <c r="G8">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4641,8 +4705,14 @@
       <c r="G9">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4664,8 +4734,14 @@
       <c r="G10">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4687,8 +4763,14 @@
       <c r="G11">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4710,8 +4792,14 @@
       <c r="G12">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4733,8 +4821,14 @@
       <c r="G13">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4756,8 +4850,14 @@
       <c r="G14">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4779,8 +4879,14 @@
       <c r="G15">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4802,8 +4908,14 @@
       <c r="G16">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4825,8 +4937,14 @@
       <c r="G17">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4848,8 +4966,14 @@
       <c r="G18">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4871,8 +4995,14 @@
       <c r="G19">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4894,8 +5024,14 @@
       <c r="G20">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4917,8 +5053,14 @@
       <c r="G21">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4940,8 +5082,14 @@
       <c r="G22">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4963,8 +5111,14 @@
       <c r="G23">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4986,8 +5140,14 @@
       <c r="G24">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5009,8 +5169,14 @@
       <c r="G25">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5032,8 +5198,14 @@
       <c r="G26">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5055,8 +5227,14 @@
       <c r="G27">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5078,8 +5256,14 @@
       <c r="G28">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5101,8 +5285,14 @@
       <c r="G29">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5124,8 +5314,14 @@
       <c r="G30">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5145,6 +5341,12 @@
         <v>4</v>
       </c>
       <c r="G31">
+        <v>86</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31">
         <v>86</v>
       </c>
     </row>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D452D9-14ED-4D42-9599-71BF6CF56772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE587A5-E195-4B98-AEFD-61FB3BDFB2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="159">
   <si>
     <t>Id</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>UpPercent</t>
+  </si>
+  <si>
+    <t>Unregistered Device</t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1782,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,13 +2867,82 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44972.720405092594</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44973.720405092594</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44974.720405092594</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4438,7 +4510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE587A5-E195-4B98-AEFD-61FB3BDFB2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8C27D9-7B9B-4CFE-8511-975ED857FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="162">
   <si>
     <t>Id</t>
   </si>
@@ -517,6 +517,15 @@
   </si>
   <si>
     <t>Unregistered Device</t>
+  </si>
+  <si>
+    <t>Virtual-Device-1</t>
+  </si>
+  <si>
+    <t>Virtual-Device-2</t>
+  </si>
+  <si>
+    <t>Virtual-Device-3</t>
   </si>
 </sst>
 </file>
@@ -544,12 +553,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -564,11 +579,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1186,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1196,7 +1212,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1222,7 +1238,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1785,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2171,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2193,7 +2209,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2231,7 +2247,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2957,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3471,8 +3487,8 @@
       <c r="D11" t="s">
         <v>147</v>
       </c>
-      <c r="E11" t="s">
-        <v>51</v>
+      <c r="E11" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -3519,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -3565,8 +3581,8 @@
       <c r="D13" t="s">
         <v>147</v>
       </c>
-      <c r="E13" t="s">
-        <v>53</v>
+      <c r="E13" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -4510,8 +4526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,7 +4811,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -4824,7 +4840,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -4853,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="E12">
         <v>10</v>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8C27D9-7B9B-4CFE-8511-975ED857FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE587A5-E195-4B98-AEFD-61FB3BDFB2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="159">
   <si>
     <t>Id</t>
   </si>
@@ -517,15 +517,6 @@
   </si>
   <si>
     <t>Unregistered Device</t>
-  </si>
-  <si>
-    <t>Virtual-Device-1</t>
-  </si>
-  <si>
-    <t>Virtual-Device-2</t>
-  </si>
-  <si>
-    <t>Virtual-Device-3</t>
   </si>
 </sst>
 </file>
@@ -553,18 +544,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -579,12 +564,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1170,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1212,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1238,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1801,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2155,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2209,7 +2193,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2247,7 +2231,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2973,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,8 +3471,8 @@
       <c r="D11" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>159</v>
+      <c r="E11" t="s">
+        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -3535,7 +3519,7 @@
         <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -3581,8 +3565,8 @@
       <c r="D13" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>161</v>
+      <c r="E13" t="s">
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -4526,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4811,7 +4795,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -4840,7 +4824,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -4869,7 +4853,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>10</v>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE587A5-E195-4B98-AEFD-61FB3BDFB2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB00A2-D8E6-4F5A-AF39-7357878A0F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="167">
   <si>
     <t>Id</t>
   </si>
@@ -517,6 +517,30 @@
   </si>
   <si>
     <t>Unregistered Device</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>fog-server-2</t>
+  </si>
+  <si>
+    <t>18.160.18.65</t>
+  </si>
+  <si>
+    <t>Fog Server2</t>
   </si>
 </sst>
 </file>
@@ -594,14 +618,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}" name="Table1" displayName="Table1" ref="A1:H31" totalsRowShown="0">
-  <autoFilter ref="A1:H31" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0">
+  <autoFilter ref="A1:K31" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8139FF78-45D2-45B9-AF65-44FCBEB4704F}" name="Id"/>
     <tableColumn id="2" xr3:uid="{CCF64B95-81ED-47B2-9D67-CDE5AD2E6261}" name="IP"/>
     <tableColumn id="3" xr3:uid="{9C909E5A-BC40-4C7A-B78C-767450E56D61}" name="Name"/>
     <tableColumn id="4" xr3:uid="{0F1C0F6C-AD45-414A-9972-B7628F6D06BA}" name="Location"/>
     <tableColumn id="5" xr3:uid="{7530D8CB-5454-47FB-83D1-AB98C9B29837}" name="Room"/>
+    <tableColumn id="11" xr3:uid="{1E0FF636-F012-42EF-81DA-24E97EBD323C}" name="Latency"/>
+    <tableColumn id="10" xr3:uid="{4625130D-877C-4FC0-A42A-2988A922199B}" name="CPU"/>
+    <tableColumn id="9" xr3:uid="{AEE11EFB-F146-41B6-982A-EAD027874A92}" name="Type"/>
     <tableColumn id="6" xr3:uid="{FFF548D7-4102-4697-9A9A-542DC93CC1AF}" name="Status"/>
     <tableColumn id="7" xr3:uid="{8B3EC318-A669-4ACD-A2E2-0C0AB73BDC29}" name="State"/>
     <tableColumn id="8" xr3:uid="{D536F729-79FF-456E-B521-D08D5009198C}" name="Registered"/>
@@ -911,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,12 +950,12 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="5" max="8" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -945,16 +972,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -970,17 +1006,26 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="b">
+      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -996,17 +1041,26 @@
       <c r="E3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="b">
+      <c r="K3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1022,17 +1076,26 @@
       <c r="E4" t="s">
         <v>123</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="b">
+      <c r="K4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1048,17 +1111,26 @@
       <c r="E5" t="s">
         <v>124</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="b">
+      <c r="K5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1074,17 +1146,26 @@
       <c r="E6" t="s">
         <v>124</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="b">
+      <c r="K6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1100,17 +1181,26 @@
       <c r="E7" t="s">
         <v>125</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="b">
+      <c r="K7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -1126,17 +1216,26 @@
       <c r="E8" t="s">
         <v>125</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="b">
+      <c r="K8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1152,17 +1251,26 @@
       <c r="E9" t="s">
         <v>126</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="b">
+      <c r="K9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -1178,17 +1286,26 @@
       <c r="E10" t="s">
         <v>126</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="b">
+      <c r="K10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1204,17 +1321,26 @@
       <c r="E11" t="s">
         <v>127</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11">
+        <v>150</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="b">
+      <c r="K11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1230,17 +1356,26 @@
       <c r="E12" t="s">
         <v>127</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="b">
+      <c r="K12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -1256,17 +1391,26 @@
       <c r="E13" t="s">
         <v>128</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13">
+        <v>600</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="b">
+      <c r="K13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1282,17 +1426,26 @@
       <c r="E14" t="s">
         <v>128</v>
       </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" t="b">
+      <c r="K14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -1308,17 +1461,26 @@
       <c r="E15" t="s">
         <v>129</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15">
+        <v>400</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" t="b">
+      <c r="K15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1334,17 +1496,26 @@
       <c r="E16" t="s">
         <v>129</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" t="b">
+      <c r="K16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -1360,17 +1531,26 @@
       <c r="E17" t="s">
         <v>130</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" t="b">
+      <c r="K17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -1386,17 +1566,26 @@
       <c r="E18" t="s">
         <v>130</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
         <v>71</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="b">
+      <c r="K18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1412,17 +1601,26 @@
       <c r="E19" t="s">
         <v>131</v>
       </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" t="b">
+      <c r="K19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -1438,17 +1636,26 @@
       <c r="E20" t="s">
         <v>131</v>
       </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" t="b">
+      <c r="K20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -1464,17 +1671,26 @@
       <c r="E21" t="s">
         <v>132</v>
       </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21">
+        <v>600</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" t="b">
+      <c r="K21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -1490,17 +1706,26 @@
       <c r="E22" t="s">
         <v>132</v>
       </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22">
+        <v>300</v>
+      </c>
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" t="b">
+      <c r="K22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1516,17 +1741,26 @@
       <c r="E23" t="s">
         <v>133</v>
       </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23">
+        <v>400</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="H23" t="b">
+      <c r="K23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1542,17 +1776,26 @@
       <c r="E24" t="s">
         <v>133</v>
       </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24">
+        <v>500</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
         <v>16</v>
       </c>
-      <c r="H24" t="b">
+      <c r="K24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -1568,17 +1811,26 @@
       <c r="E25" t="s">
         <v>134</v>
       </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25">
+        <v>600</v>
+      </c>
+      <c r="G25">
+        <v>0.2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
         <v>16</v>
       </c>
-      <c r="H25" t="b">
+      <c r="K25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -1594,17 +1846,26 @@
       <c r="E26" t="s">
         <v>134</v>
       </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
         <v>16</v>
       </c>
-      <c r="H26" t="b">
+      <c r="K26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -1620,17 +1881,26 @@
       <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27">
+        <v>400</v>
+      </c>
+      <c r="G27">
+        <v>0.2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
         <v>16</v>
       </c>
-      <c r="H27" t="b">
+      <c r="K27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -1646,17 +1916,26 @@
       <c r="E28" t="s">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28">
+        <v>500</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
         <v>16</v>
       </c>
-      <c r="H28" t="b">
+      <c r="K28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -1666,14 +1945,23 @@
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="b">
+      <c r="F29">
+        <v>600</v>
+      </c>
+      <c r="G29">
+        <v>0.2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -1683,14 +1971,23 @@
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="b">
+      <c r="F30">
+        <v>500</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -1700,10 +1997,19 @@
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="b">
+      <c r="F31">
+        <v>600</v>
+      </c>
+      <c r="G31">
+        <v>0.2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>162</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1785,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,7 +3275,7 @@
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3048,14 +3354,14 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>146</v>
+      <c r="I2" t="s">
+        <v>143</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>146</v>
@@ -3075,19 +3381,19 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -3098,7 +3404,7 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>143</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -3108,51 +3414,51 @@
         <v>148</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="3">
-        <v>3</v>
-      </c>
-      <c r="N3" s="3">
-        <v>5</v>
+        <v>146</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>148</v>
@@ -3164,27 +3470,30 @@
         <v>3</v>
       </c>
       <c r="N4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>150</v>
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -3196,10 +3505,10 @@
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>148</v>
@@ -3219,34 +3528,34 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>148</v>
@@ -3261,27 +3570,24 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -3290,13 +3596,13 @@
         <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>148</v>
@@ -3311,39 +3617,42 @@
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>150</v>
+        <v>71</v>
+      </c>
+      <c r="P7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>148</v>
@@ -3363,19 +3672,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -3387,10 +3696,10 @@
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>148</v>
@@ -3410,34 +3719,34 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>148</v>
@@ -3452,27 +3761,24 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -3481,13 +3787,13 @@
         <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>148</v>
@@ -3502,39 +3808,42 @@
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>150</v>
+        <v>71</v>
+      </c>
+      <c r="P11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>148</v>
@@ -3554,19 +3863,19 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -3578,10 +3887,10 @@
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>148</v>
@@ -3601,34 +3910,34 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>148</v>
@@ -3648,19 +3957,19 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -3672,10 +3981,10 @@
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>148</v>
@@ -3695,34 +4004,34 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>148</v>
@@ -3742,19 +4051,19 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -3763,13 +4072,13 @@
         <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>148</v>
@@ -3784,42 +4093,39 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>148</v>
@@ -3834,24 +4140,27 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>150</v>
+        <v>71</v>
+      </c>
+      <c r="P18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -3860,7 +4169,7 @@
         <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>143</v>
@@ -3881,36 +4190,33 @@
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3931,24 +4237,27 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>150</v>
+        <v>71</v>
+      </c>
+      <c r="P20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -3983,25 +4292,25 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -4030,19 +4339,19 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -4077,25 +4386,25 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -4124,19 +4433,19 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -4171,25 +4480,25 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -4218,19 +4527,19 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -4265,25 +4574,25 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -4312,19 +4621,19 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -4359,19 +4668,19 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -4406,19 +4715,19 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -4453,19 +4762,19 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -4477,27 +4786,74 @@
         <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J33" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="3">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="M33" s="3">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>5</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O33" t="s">
         <v>65</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P33" t="s">
         <v>151</v>
       </c>
     </row>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB00A2-D8E6-4F5A-AF39-7357878A0F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25518995-B523-49DD-ADA7-EAD3C0B8B155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="167">
   <si>
     <t>Id</t>
   </si>
@@ -588,11 +588,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,8 +619,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0">
-  <autoFilter ref="A1:K31" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0">
+  <autoFilter ref="A1:K33" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8139FF78-45D2-45B9-AF65-44FCBEB4704F}" name="Id"/>
     <tableColumn id="2" xr3:uid="{CCF64B95-81ED-47B2-9D67-CDE5AD2E6261}" name="IP"/>
@@ -638,8 +639,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3371CB5-1D03-47B7-8581-728F1EC67862}" name="Table13" displayName="Table13" ref="A1:L31" totalsRowShown="0">
-  <autoFilter ref="A1:L31" xr:uid="{D3371CB5-1D03-47B7-8581-728F1EC67862}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3371CB5-1D03-47B7-8581-728F1EC67862}" name="Table13" displayName="Table13" ref="A1:L33" totalsRowShown="0">
+  <autoFilter ref="A1:L33" xr:uid="{D3371CB5-1D03-47B7-8581-728F1EC67862}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{BFDCF6D6-3A22-467C-834C-93E0D16A94FB}" name="DeviceID"/>
     <tableColumn id="9" xr3:uid="{B6DF7550-F9DA-4F74-B025-07BEE7D95404}" name="TimeStamp"/>
@@ -659,8 +660,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}" name="Table14" displayName="Table14" ref="B1:I31" totalsRowShown="0">
-  <autoFilter ref="B1:I31" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}" name="Table14" displayName="Table14" ref="B1:I33" totalsRowShown="0">
+  <autoFilter ref="B1:I33" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{59ECF417-BFD4-4931-9013-84530CD15DD3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{97B4C2FE-1A59-4DE5-A4E4-65985B3134BB}" name="IP"/>
@@ -938,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,13 +993,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1007,10 +1008,10 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="s">
         <v>162</v>
@@ -1027,28 +1028,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>150</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -1062,22 +1063,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G4">
         <v>0.2</v>
@@ -1097,31 +1098,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>150</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="s">
         <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -1132,22 +1133,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G6">
         <v>0.2</v>
@@ -1167,31 +1168,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <v>150</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
         <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -1202,22 +1203,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G8">
         <v>0.2</v>
@@ -1237,19 +1238,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9">
         <v>150</v>
@@ -1261,7 +1262,7 @@
         <v>163</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -1272,25 +1273,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="s">
         <v>162</v>
@@ -1307,19 +1308,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11">
         <v>150</v>
@@ -1331,7 +1332,7 @@
         <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -1342,25 +1343,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H12" t="s">
         <v>162</v>
@@ -1377,28 +1378,28 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="G13">
         <v>0.2</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1412,22 +1413,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G14">
         <v>0.2</v>
@@ -1447,22 +1448,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G15">
         <v>0.2</v>
@@ -1482,31 +1483,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="s">
         <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -1517,22 +1518,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G17">
         <v>0.2</v>
@@ -1552,22 +1553,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1587,22 +1588,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G19">
         <v>0.2</v>
@@ -1622,31 +1623,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -1657,22 +1658,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F21">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G21">
         <v>0.2</v>
@@ -1692,22 +1693,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G22">
         <v>0.2</v>
@@ -1727,25 +1728,25 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H23" t="s">
         <v>162</v>
@@ -1762,22 +1763,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G24">
         <v>0.2</v>
@@ -1797,25 +1798,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H25" t="s">
         <v>162</v>
@@ -1832,22 +1833,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G26">
         <v>0.2</v>
@@ -1867,22 +1868,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="F27">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G27">
         <v>0.2</v>
@@ -1902,25 +1903,25 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H28" t="s">
         <v>162</v>
@@ -1937,16 +1938,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
       <c r="F29">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G29">
         <v>0.2</v>
@@ -1957,25 +1964,34 @@
       <c r="I29" t="s">
         <v>15</v>
       </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
       </c>
       <c r="F30">
         <v>500</v>
       </c>
       <c r="G30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="s">
         <v>162</v>
@@ -1983,16 +1999,19 @@
       <c r="I30" t="s">
         <v>15</v>
       </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
       <c r="K30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2010,6 +2029,58 @@
         <v>15</v>
       </c>
       <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="G32">
+        <v>0.2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>600</v>
+      </c>
+      <c r="G33">
+        <v>0.2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2027,7 +2098,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,16 +2219,16 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1">
         <v>44945.720405092594</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -2168,78 +2239,60 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
       <c r="K2">
-        <v>3.24</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>3.24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1">
         <v>44946.720405092594</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>119</v>
-      </c>
       <c r="K3">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>3.24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>44947.720405092594</v>
+        <v>44945.720405092594</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -2248,10 +2301,10 @@
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K4">
         <v>3.24</v>
@@ -2262,37 +2315,37 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1">
-        <v>44948.720405092594</v>
+        <v>44946.720405092594</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K5">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="L5">
         <v>3.24</v>
@@ -2300,37 +2353,37 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1">
-        <v>44949.720405092594</v>
+        <v>44947.720405092594</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K6">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="L6">
         <v>3.24</v>
@@ -2338,34 +2391,34 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1">
-        <v>44950.720405092594</v>
+        <v>44948.720405092594</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
         <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K7">
         <v>3.24</v>
@@ -2376,37 +2429,37 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1">
-        <v>44951.720405092594</v>
+        <v>44949.720405092594</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="L8">
         <v>3.24</v>
@@ -2414,37 +2467,37 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1">
-        <v>44952.720405092594</v>
+        <v>44950.720405092594</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="L9">
         <v>3.24</v>
@@ -2452,22 +2505,22 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1">
-        <v>44953.720405092594</v>
+        <v>44951.720405092594</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -2476,10 +2529,10 @@
         <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K10">
         <v>3.24</v>
@@ -2490,37 +2543,37 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1">
-        <v>44954.720405092594</v>
+        <v>44952.720405092594</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K11">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="L11">
         <v>3.24</v>
@@ -2528,37 +2581,37 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1">
-        <v>44955.720405092594</v>
+        <v>44953.720405092594</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="L12">
         <v>3.24</v>
@@ -2566,22 +2619,22 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1">
-        <v>44956.720405092594</v>
+        <v>44954.720405092594</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -2590,10 +2643,10 @@
         <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K13">
         <v>3.24</v>
@@ -2604,37 +2657,37 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1">
-        <v>44957.720405092594</v>
+        <v>44955.720405092594</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K14">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="L14">
         <v>3.24</v>
@@ -2642,37 +2695,37 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1">
-        <v>44958.720405092594</v>
+        <v>44956.720405092594</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K15">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="L15">
         <v>3.24</v>
@@ -2680,34 +2733,34 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1">
-        <v>44959.720405092594</v>
+        <v>44957.720405092594</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
         <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>3.24</v>
@@ -2718,37 +2771,37 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1">
-        <v>44960.720405092594</v>
+        <v>44958.720405092594</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="L17">
         <v>3.24</v>
@@ -2756,37 +2809,37 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1">
-        <v>44961.720405092594</v>
+        <v>44959.720405092594</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="L18">
         <v>3.24</v>
@@ -2794,22 +2847,22 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="1">
-        <v>44962.720405092594</v>
+        <v>44960.720405092594</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -2818,10 +2871,10 @@
         <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K19">
         <v>3.24</v>
@@ -2832,37 +2885,37 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" s="1">
-        <v>44963.720405092594</v>
+        <v>44961.720405092594</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="L20">
         <v>3.24</v>
@@ -2870,37 +2923,37 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1">
-        <v>44964.720405092594</v>
+        <v>44962.720405092594</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K21">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="L21">
         <v>3.24</v>
@@ -2908,22 +2961,22 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1">
-        <v>44965.720405092594</v>
+        <v>44963.720405092594</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
@@ -2932,10 +2985,10 @@
         <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K22">
         <v>3.24</v>
@@ -2946,37 +2999,37 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1">
-        <v>44966.720405092594</v>
+        <v>44964.720405092594</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K23">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="L23">
         <v>3.24</v>
@@ -2984,37 +3037,37 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1">
-        <v>44967.720405092594</v>
+        <v>44965.720405092594</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K24">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="L24">
         <v>3.24</v>
@@ -3022,22 +3075,22 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1">
-        <v>44968.720405092594</v>
+        <v>44966.720405092594</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
@@ -3046,10 +3099,10 @@
         <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K25">
         <v>3.24</v>
@@ -3060,37 +3113,37 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1">
-        <v>44969.720405092594</v>
+        <v>44967.720405092594</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="L26">
         <v>3.24</v>
@@ -3098,37 +3151,37 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1">
-        <v>44970.720405092594</v>
+        <v>44968.720405092594</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K27">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="L27">
         <v>3.24</v>
@@ -3136,22 +3189,22 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1">
-        <v>44971.720405092594</v>
+        <v>44969.720405092594</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
@@ -3160,10 +3213,10 @@
         <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K28">
         <v>3.24</v>
@@ -3174,42 +3227,60 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="1">
-        <v>44972.720405092594</v>
+        <v>44970.720405092594</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
       <c r="G29" t="s">
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="J29" t="s">
         <v>119</v>
       </c>
+      <c r="K29">
+        <v>3.22</v>
+      </c>
+      <c r="L29">
+        <v>3.24</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1">
-        <v>44973.720405092594</v>
+        <v>44971.720405092594</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -3218,21 +3289,27 @@
         <v>65</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="K30">
+        <v>3.24</v>
+      </c>
+      <c r="L30">
+        <v>3.24</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1">
-        <v>44974.720405092594</v>
+        <v>44972.720405092594</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -3247,6 +3324,58 @@
         <v>158</v>
       </c>
       <c r="J31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44973.720405092594</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44974.720405092594</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3263,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,8 +3542,8 @@
       <c r="K3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>146</v>
+      <c r="L3" t="s">
+        <v>144</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>146</v>
@@ -4864,10 +4993,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4913,28 +5042,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4942,28 +5071,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>92</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4971,28 +5100,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5000,19 +5129,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>92</v>
@@ -5029,28 +5158,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5058,28 +5187,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>92</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>90</v>
-      </c>
       <c r="H7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5087,19 +5216,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>88</v>
@@ -5116,28 +5245,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5145,28 +5274,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
       <c r="G10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5174,28 +5303,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5203,28 +5332,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5232,28 +5361,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
       <c r="G13">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5261,28 +5390,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5290,28 +5419,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I15">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5319,28 +5448,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I16">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5348,28 +5477,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5377,28 +5506,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>95</v>
+      </c>
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="G18">
-        <v>85</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
       <c r="I18">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5406,28 +5535,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>96</v>
+      </c>
+      <c r="H19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>91</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
       <c r="I19">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5435,28 +5564,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
       <c r="G20">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5464,28 +5593,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5493,28 +5622,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5522,28 +5651,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5551,28 +5680,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -5580,28 +5709,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5609,28 +5738,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I26">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5638,28 +5767,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5667,28 +5796,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I28">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5696,28 +5825,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I29">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -5725,28 +5854,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5754,27 +5883,85 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>84</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>85</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <v>86</v>
       </c>
-      <c r="H31">
+      <c r="H33">
         <v>14</v>
       </c>
-      <c r="I31">
+      <c r="I33">
         <v>86</v>
       </c>
     </row>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25518995-B523-49DD-ADA7-EAD3C0B8B155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9AEF2-EED0-448A-9AA8-8DF8B582A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="170">
   <si>
     <t>Id</t>
   </si>
@@ -541,6 +541,15 @@
   </si>
   <si>
     <t>Fog Server2</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Status OK</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -588,12 +597,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2163,7 +2171,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,6 +2247,15 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
+      </c>
       <c r="K2">
         <v>4</v>
       </c>
@@ -2267,6 +2284,15 @@
       </c>
       <c r="G3" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" t="s">
+        <v>169</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -5059,10 +5085,10 @@
       <c r="G2">
         <v>94</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>94</v>
       </c>
     </row>
@@ -5088,10 +5114,10 @@
       <c r="G3">
         <v>94</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>94</v>
       </c>
     </row>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9AEF2-EED0-448A-9AA8-8DF8B582A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A2172-8F5B-495A-98C4-5B4A259F7311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="174">
   <si>
     <t>Id</t>
   </si>
@@ -550,6 +550,18 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>DTYPE</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Unregistered</t>
   </si>
 </sst>
 </file>
@@ -627,9 +639,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0">
-  <autoFilter ref="A1:K33" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}" name="Table1" displayName="Table1" ref="A1:L33" totalsRowShown="0">
+  <autoFilter ref="A1:L33" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{8139FF78-45D2-45B9-AF65-44FCBEB4704F}" name="Id"/>
     <tableColumn id="2" xr3:uid="{CCF64B95-81ED-47B2-9D67-CDE5AD2E6261}" name="IP"/>
     <tableColumn id="3" xr3:uid="{9C909E5A-BC40-4C7A-B78C-767450E56D61}" name="Name"/>
@@ -641,6 +653,7 @@
     <tableColumn id="6" xr3:uid="{FFF548D7-4102-4697-9A9A-542DC93CC1AF}" name="Status"/>
     <tableColumn id="7" xr3:uid="{8B3EC318-A669-4ACD-A2E2-0C0AB73BDC29}" name="State"/>
     <tableColumn id="8" xr3:uid="{D536F729-79FF-456E-B521-D08D5009198C}" name="Registered"/>
+    <tableColumn id="12" xr3:uid="{459B051A-BC94-4CF5-A7AC-8786DCB9F858}" name="DTYPE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -947,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,9 +975,10 @@
     <col min="5" max="8" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,8 +1012,11 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -1033,8 +1050,11 @@
       <c r="K2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -1068,8 +1088,11 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1103,8 +1126,11 @@
       <c r="K4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1138,8 +1164,11 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1173,8 +1202,11 @@
       <c r="K6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1208,8 +1240,11 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1243,8 +1278,11 @@
       <c r="K8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1278,8 +1316,11 @@
       <c r="K9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1313,8 +1354,11 @@
       <c r="K10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1348,8 +1392,11 @@
       <c r="K11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1383,8 +1430,11 @@
       <c r="K12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -1418,8 +1468,11 @@
       <c r="K13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1453,8 +1506,11 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -1488,8 +1544,11 @@
       <c r="K15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -1523,8 +1582,11 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1558,8 +1620,11 @@
       <c r="K17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1593,8 +1658,11 @@
       <c r="K18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -1628,8 +1696,11 @@
       <c r="K19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -1663,8 +1734,11 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -1698,8 +1772,11 @@
       <c r="K21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1733,8 +1810,11 @@
       <c r="K22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -1768,8 +1848,11 @@
       <c r="K23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -1803,8 +1886,11 @@
       <c r="K24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -1838,8 +1924,11 @@
       <c r="K25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1873,8 +1962,11 @@
       <c r="K26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="K27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -1943,8 +2038,11 @@
       <c r="K28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -1978,8 +2076,11 @@
       <c r="K29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2013,8 +2114,11 @@
       <c r="K30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -2039,8 +2143,11 @@
       <c r="K31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2065,8 +2172,11 @@
       <c r="K32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -2090,6 +2200,9 @@
       </c>
       <c r="K33" t="b">
         <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2170,7 +2283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A598F70-FCF0-43CC-B496-2B7952A42844}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A2172-8F5B-495A-98C4-5B4A259F7311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B757C18F-36FB-4A64-BA30-894AADE97ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="179">
   <si>
     <t>Id</t>
   </si>
@@ -177,15 +177,9 @@
     <t>192.168.1.238</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-17</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-18</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-20</t>
   </si>
   <si>
@@ -195,27 +189,15 @@
     <t xml:space="preserve">	Light Switch-22</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-24</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-25</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-26</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-27</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-28</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-29</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-30</t>
   </si>
   <si>
@@ -267,27 +249,15 @@
     <t xml:space="preserve">	Light Switch-32</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-33</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-34</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-35</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-36</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-37</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-38</t>
   </si>
   <si>
-    <t xml:space="preserve">	Light Switch-39</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Light Switch-40</t>
   </si>
   <si>
@@ -562,6 +532,51 @@
   </si>
   <si>
     <t>Unregistered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Door-Lock-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Door-Lock-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Door-Lock-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Door-Lock-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Motion-Sensor-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Motion-Sensor-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Security-Camera-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Security-Camera-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Door-Lock-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Security-Camera-3</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>EDGE/IOT</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>192.168.4.130</t>
+  </si>
+  <si>
+    <t>CLOUD</t>
   </si>
 </sst>
 </file>
@@ -609,11 +624,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,9 +655,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}" name="Table1" displayName="Table1" ref="A1:L33" totalsRowShown="0">
-  <autoFilter ref="A1:L33" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}" name="Table1" displayName="Table1" ref="A1:M34" totalsRowShown="0">
+  <autoFilter ref="A1:M34" xr:uid="{B8DC48D6-6481-45B4-9ACB-B76CA38BC59E}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8139FF78-45D2-45B9-AF65-44FCBEB4704F}" name="Id"/>
     <tableColumn id="2" xr3:uid="{CCF64B95-81ED-47B2-9D67-CDE5AD2E6261}" name="IP"/>
     <tableColumn id="3" xr3:uid="{9C909E5A-BC40-4C7A-B78C-767450E56D61}" name="Name"/>
@@ -650,6 +666,7 @@
     <tableColumn id="11" xr3:uid="{1E0FF636-F012-42EF-81DA-24E97EBD323C}" name="Latency"/>
     <tableColumn id="10" xr3:uid="{4625130D-877C-4FC0-A42A-2988A922199B}" name="CPU"/>
     <tableColumn id="9" xr3:uid="{AEE11EFB-F146-41B6-982A-EAD027874A92}" name="Type"/>
+    <tableColumn id="13" xr3:uid="{E3A62C2B-C04E-4182-AE30-7A1EC4CE20E6}" name="Layer"/>
     <tableColumn id="6" xr3:uid="{FFF548D7-4102-4697-9A9A-542DC93CC1AF}" name="Status"/>
     <tableColumn id="7" xr3:uid="{8B3EC318-A669-4ACD-A2E2-0C0AB73BDC29}" name="State"/>
     <tableColumn id="8" xr3:uid="{D536F729-79FF-456E-B521-D08D5009198C}" name="Registered"/>
@@ -681,8 +698,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}" name="Table14" displayName="Table14" ref="B1:I33" totalsRowShown="0">
-  <autoFilter ref="B1:I33" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}" name="Table14" displayName="Table14" ref="B1:I34" totalsRowShown="0">
+  <autoFilter ref="B1:I34" xr:uid="{45EFA603-1FA3-4896-89CC-F1E723A17D02}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{59ECF417-BFD4-4931-9013-84530CD15DD3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{97B4C2FE-1A59-4DE5-A4E4-65985B3134BB}" name="IP"/>
@@ -960,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,13 +989,13 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="5" max="9" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,36 +1012,39 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1039,30 +1059,33 @@
         <v>0.1</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1077,22 +1100,25 @@
         <v>0.1</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="b">
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1115,24 +1141,27 @@
         <v>0.2</v>
       </c>
       <c r="H4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>162</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1144,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F5">
         <v>150</v>
@@ -1153,36 +1182,39 @@
         <v>0.2</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="b">
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -1191,36 +1223,39 @@
         <v>0.2</v>
       </c>
       <c r="H6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>162</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F7">
         <v>150</v>
@@ -1229,36 +1264,39 @@
         <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="b">
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -1267,36 +1305,39 @@
         <v>0.2</v>
       </c>
       <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>162</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F9">
         <v>150</v>
@@ -1305,36 +1346,39 @@
         <v>0.2</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" t="b">
+      <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -1343,36 +1387,39 @@
         <v>0.2</v>
       </c>
       <c r="H10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
         <v>162</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F11">
         <v>150</v>
@@ -1381,36 +1428,39 @@
         <v>0.2</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" t="b">
+      <c r="L11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F12">
         <v>300</v>
@@ -1419,36 +1469,39 @@
         <v>0.1</v>
       </c>
       <c r="H12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
         <v>162</v>
       </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F13">
         <v>150</v>
@@ -1457,36 +1510,39 @@
         <v>0.2</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="K13" t="b">
+      <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F14">
         <v>500</v>
@@ -1495,36 +1551,39 @@
         <v>0.2</v>
       </c>
       <c r="H14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>162</v>
       </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F15">
         <v>600</v>
@@ -1533,36 +1592,39 @@
         <v>0.2</v>
       </c>
       <c r="H15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>162</v>
       </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F16">
         <v>300</v>
@@ -1571,36 +1633,39 @@
         <v>0.2</v>
       </c>
       <c r="H16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>162</v>
       </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F17">
         <v>400</v>
@@ -1609,36 +1674,39 @@
         <v>0.2</v>
       </c>
       <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>162</v>
       </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F18">
         <v>500</v>
@@ -1647,36 +1715,39 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>162</v>
       </c>
-      <c r="I18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F19">
         <v>600</v>
@@ -1685,36 +1756,39 @@
         <v>0.2</v>
       </c>
       <c r="H19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>162</v>
       </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F20">
         <v>300</v>
@@ -1723,36 +1797,39 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
         <v>162</v>
       </c>
-      <c r="I20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F21">
         <v>400</v>
@@ -1761,36 +1838,39 @@
         <v>0.2</v>
       </c>
       <c r="H21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>162</v>
       </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F22">
         <v>500</v>
@@ -1799,36 +1879,39 @@
         <v>0.2</v>
       </c>
       <c r="H22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>162</v>
       </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F23">
         <v>600</v>
@@ -1837,36 +1920,39 @@
         <v>0.2</v>
       </c>
       <c r="H23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>162</v>
       </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F24">
         <v>300</v>
@@ -1875,36 +1961,39 @@
         <v>0.2</v>
       </c>
       <c r="H24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
         <v>162</v>
       </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F25">
         <v>400</v>
@@ -1913,36 +2002,39 @@
         <v>0.1</v>
       </c>
       <c r="H25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
         <v>162</v>
       </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F26">
         <v>500</v>
@@ -1951,36 +2043,39 @@
         <v>0.2</v>
       </c>
       <c r="H26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
         <v>162</v>
       </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F27">
         <v>600</v>
@@ -1989,36 +2084,39 @@
         <v>0.2</v>
       </c>
       <c r="H27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>162</v>
       </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F28">
         <v>300</v>
@@ -2027,30 +2125,33 @@
         <v>0.2</v>
       </c>
       <c r="H28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>162</v>
       </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2065,30 +2166,33 @@
         <v>0.2</v>
       </c>
       <c r="H29" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>162</v>
       </c>
-      <c r="I29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2103,24 +2207,27 @@
         <v>0.5</v>
       </c>
       <c r="H30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
         <v>162</v>
       </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -2135,21 +2242,21 @@
         <v>0.2</v>
       </c>
       <c r="H31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" t="b">
+        <v>152</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -2164,21 +2271,21 @@
         <v>0.2</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" t="b">
+        <v>152</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -2193,16 +2300,51 @@
         <v>0.2</v>
       </c>
       <c r="H33" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" t="b">
+        <v>152</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="s">
-        <v>173</v>
+      <c r="M33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2219,7 +2361,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,46 +2373,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1">
         <v>44945.720405092594</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1">
         <v>44946.720405092594</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1">
         <v>44947.720405092594</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2284,7 +2426,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2434,7 @@
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
@@ -2302,10 +2444,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2323,33 +2465,33 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1">
         <v>44945.720405092594</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -2361,13 +2503,13 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -2378,16 +2520,16 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1">
         <v>44946.720405092594</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2399,13 +2541,13 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -2437,13 +2579,13 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K4">
         <v>3.24</v>
@@ -2454,7 +2596,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1">
         <v>44946.720405092594</v>
@@ -2469,19 +2611,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K5">
         <v>3.22</v>
@@ -2492,7 +2634,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1">
         <v>44947.720405092594</v>
@@ -2501,25 +2643,25 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K6">
         <v>3.24</v>
@@ -2530,7 +2672,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>44948.720405092594</v>
@@ -2539,25 +2681,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>3.24</v>
@@ -2568,7 +2710,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1">
         <v>44949.720405092594</v>
@@ -2577,25 +2719,25 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K8">
         <v>3.22</v>
@@ -2606,7 +2748,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1">
         <v>44950.720405092594</v>
@@ -2615,25 +2757,25 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9">
         <v>3.24</v>
@@ -2644,7 +2786,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1">
         <v>44951.720405092594</v>
@@ -2653,25 +2795,25 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>3.24</v>
@@ -2682,7 +2824,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1">
         <v>44952.720405092594</v>
@@ -2691,25 +2833,25 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K11">
         <v>3.22</v>
@@ -2720,7 +2862,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>44953.720405092594</v>
@@ -2729,25 +2871,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K12">
         <v>3.24</v>
@@ -2758,7 +2900,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1">
         <v>44954.720405092594</v>
@@ -2767,25 +2909,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K13">
         <v>3.24</v>
@@ -2796,7 +2938,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
         <v>44955.720405092594</v>
@@ -2805,25 +2947,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K14">
         <v>3.21</v>
@@ -2834,7 +2976,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>44956.720405092594</v>
@@ -2843,25 +2985,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K15">
         <v>3.24</v>
@@ -2872,7 +3014,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1">
         <v>44957.720405092594</v>
@@ -2881,25 +3023,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>3.24</v>
@@ -2910,7 +3052,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1">
         <v>44958.720405092594</v>
@@ -2919,25 +3061,25 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K17">
         <v>3.22</v>
@@ -2948,7 +3090,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1">
         <v>44959.720405092594</v>
@@ -2957,25 +3099,25 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>3.24</v>
@@ -2986,7 +3128,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1">
         <v>44960.720405092594</v>
@@ -2995,25 +3137,25 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K19">
         <v>3.24</v>
@@ -3024,7 +3166,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B20" s="1">
         <v>44961.720405092594</v>
@@ -3033,25 +3175,25 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K20">
         <v>3.32</v>
@@ -3062,7 +3204,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
         <v>44962.720405092594</v>
@@ -3071,25 +3213,25 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>3.24</v>
@@ -3100,7 +3242,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1">
         <v>44963.720405092594</v>
@@ -3109,25 +3251,25 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K22">
         <v>3.24</v>
@@ -3138,7 +3280,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1">
         <v>44964.720405092594</v>
@@ -3147,25 +3289,25 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K23">
         <v>3.23</v>
@@ -3176,7 +3318,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1">
         <v>44965.720405092594</v>
@@ -3185,25 +3327,25 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K24">
         <v>3.24</v>
@@ -3214,7 +3356,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1">
         <v>44966.720405092594</v>
@@ -3223,25 +3365,25 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K25">
         <v>3.24</v>
@@ -3252,7 +3394,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B26" s="1">
         <v>44967.720405092594</v>
@@ -3261,25 +3403,25 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K26">
         <v>3.22</v>
@@ -3290,7 +3432,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B27" s="1">
         <v>44968.720405092594</v>
@@ -3299,25 +3441,25 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K27">
         <v>3.24</v>
@@ -3328,7 +3470,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1">
         <v>44969.720405092594</v>
@@ -3337,25 +3479,25 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K28">
         <v>3.24</v>
@@ -3366,7 +3508,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1">
         <v>44970.720405092594</v>
@@ -3375,7 +3517,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -3387,13 +3529,13 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K29">
         <v>3.22</v>
@@ -3404,7 +3546,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1">
         <v>44971.720405092594</v>
@@ -3413,7 +3555,7 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -3425,13 +3567,13 @@
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>3.24</v>
@@ -3442,7 +3584,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1">
         <v>44972.720405092594</v>
@@ -3457,18 +3599,18 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1">
         <v>44973.720405092594</v>
@@ -3483,18 +3625,18 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1">
         <v>44974.720405092594</v>
@@ -3509,13 +3651,13 @@
         <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3529,10 +3671,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,25 +3682,26 @@
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3573,95 +3716,73 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="P1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>176</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -3673,45 +3794,45 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -3722,114 +3843,117 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>166</v>
+      <c r="I4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" t="s">
+        <v>176</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="3">
-        <v>3</v>
-      </c>
-      <c r="N4" s="3">
-        <v>5</v>
+        <v>138</v>
+      </c>
+      <c r="L4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M5" s="3">
         <v>3</v>
       </c>
       <c r="N5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>150</v>
+        <v>59</v>
+      </c>
+      <c r="P5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M6" s="3">
         <v>3</v>
@@ -3838,45 +3962,45 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M7" s="3">
         <v>3</v>
@@ -3885,95 +4009,95 @@
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
         <v>144</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M9" s="3">
         <v>3</v>
@@ -3982,45 +4106,45 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M10" s="3">
         <v>3</v>
@@ -4029,45 +4153,45 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M11" s="3">
         <v>3</v>
@@ -4076,95 +4200,95 @@
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s">
         <v>144</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
-        <v>3</v>
-      </c>
-      <c r="O12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M13" s="3">
         <v>3</v>
@@ -4173,45 +4297,45 @@
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M14" s="3">
         <v>3</v>
@@ -4220,45 +4344,45 @@
         <v>3</v>
       </c>
       <c r="O14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M15" s="3">
         <v>3</v>
@@ -4267,45 +4391,45 @@
         <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M16" s="3">
         <v>3</v>
@@ -4314,45 +4438,45 @@
         <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M17" s="3">
         <v>3</v>
@@ -4361,45 +4485,45 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M18" s="3">
         <v>3</v>
@@ -4408,95 +4532,95 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" t="s">
         <v>144</v>
-      </c>
-      <c r="M19" s="3">
-        <v>3</v>
-      </c>
-      <c r="N19" s="3">
-        <v>3</v>
-      </c>
-      <c r="O19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M20" s="3">
         <v>3</v>
@@ -4505,95 +4629,95 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="s">
         <v>144</v>
-      </c>
-      <c r="M21" s="3">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
-        <v>3</v>
-      </c>
-      <c r="O21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M22" s="3">
         <v>3</v>
@@ -4602,45 +4726,45 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M23" s="3">
         <v>3</v>
@@ -4649,45 +4773,45 @@
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M24" s="3">
         <v>3</v>
@@ -4696,45 +4820,45 @@
         <v>3</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M25" s="3">
         <v>3</v>
@@ -4743,45 +4867,45 @@
         <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M26" s="3">
         <v>3</v>
@@ -4790,46 +4914,46 @@
         <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="M27" s="3">
         <v>3</v>
       </c>
@@ -4837,46 +4961,46 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="M28" s="3">
         <v>3</v>
       </c>
@@ -4884,45 +5008,45 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M29" s="3">
         <v>3</v>
@@ -4931,24 +5055,24 @@
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -4960,16 +5084,16 @@
         <v>15</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M30" s="3">
         <v>3</v>
@@ -4978,24 +5102,24 @@
         <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -5007,16 +5131,16 @@
         <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M31" s="3">
         <v>3</v>
@@ -5025,24 +5149,24 @@
         <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -5054,16 +5178,16 @@
         <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M32" s="3">
         <v>3</v>
@@ -5072,24 +5196,24 @@
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -5101,28 +5225,75 @@
         <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="K34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="3">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="M34" s="3">
+        <v>3</v>
+      </c>
+      <c r="N34" s="3">
         <v>5</v>
       </c>
-      <c r="O33" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" t="s">
-        <v>151</v>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5132,10 +5303,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5149,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5161,19 +5332,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5181,13 +5352,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -5210,13 +5381,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -5268,7 +5439,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -5297,13 +5468,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5326,13 +5497,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -5355,13 +5526,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -5384,13 +5555,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -5413,13 +5584,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5442,13 +5613,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -5471,13 +5642,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -5500,13 +5671,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -5529,13 +5700,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -5558,13 +5729,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -5587,13 +5758,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -5616,13 +5787,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -5645,13 +5816,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -5674,13 +5845,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -5703,13 +5874,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -5732,13 +5903,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -5761,13 +5932,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -5790,13 +5961,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -5819,13 +5990,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -5848,13 +6019,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -5877,13 +6048,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -5906,13 +6077,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -5935,13 +6106,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -5964,13 +6135,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -5993,13 +6164,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -6022,13 +6193,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -6051,13 +6222,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>9</v>
@@ -6080,13 +6251,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -6102,6 +6273,35 @@
       </c>
       <c r="I33">
         <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridgette\React\fog-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B757C18F-36FB-4A64-BA30-894AADE97ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D1010-8F79-414E-9BAE-02FF401CEA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="181">
   <si>
     <t>Id</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>CLOUD</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Cloud-Server</t>
   </si>
 </sst>
 </file>
@@ -624,12 +630,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,13 +2325,10 @@
         <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F34">
         <v>300</v>
@@ -2426,7 +2428,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3592,6 +3594,9 @@
       <c r="C31" t="s">
         <v>42</v>
       </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
@@ -3618,6 +3623,9 @@
       <c r="C32" t="s">
         <v>43</v>
       </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
@@ -3643,6 +3651,9 @@
       </c>
       <c r="C33" t="s">
         <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -3673,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C0614-E23F-4957-ABD5-C6B390DAE333}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,10 +3765,13 @@
         <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>176</v>
@@ -5196,7 +5210,10 @@
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="P32" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5243,7 +5260,10 @@
         <v>3</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="P33" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5305,7 +5325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF08B535-1CD7-4839-8A41-B9B36E203083}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -6297,10 +6317,10 @@
       <c r="G34">
         <v>100</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34">
         <v>100</v>
       </c>
     </row>
